--- a/data/trans_orig/P41A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P41A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E842539-2424-4480-BB71-DA3B0156FAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7AD8F67-77EA-47E1-97E0-48CC6DFC1FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23170829-48C8-484C-8B41-874D308720AD}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0F7ADEDC-A3A1-4243-873D-B73C2AECC3B7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2656" uniqueCount="830">
   <si>
     <t>Población según si usan algún tipo de método anticonceptivo en 2007 (Tasa respuesta: 99,6%)</t>
   </si>
@@ -2069,457 +2069,466 @@
     <t>Población según si usan algún tipo de método anticonceptivo en 2023 (Tasa respuesta: 93,55%)</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>34,13%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>10,21%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>5,31%</t>
   </si>
   <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>46,81%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>49,3%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
   </si>
 </sst>
 </file>
@@ -2931,7 +2940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A297F2FD-C73B-493A-98B7-6509C6749543}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DD71AE-928D-4503-B792-44551F3964FF}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3577,7 +3586,7 @@
         <v>119</v>
       </c>
       <c r="I14" s="7">
-        <v>121320</v>
+        <v>121319</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>64</v>
@@ -3781,7 +3790,7 @@
         <v>1075</v>
       </c>
       <c r="I18" s="7">
-        <v>1092821</v>
+        <v>1092820</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>96</v>
@@ -3832,7 +3841,7 @@
         <v>1286</v>
       </c>
       <c r="I19" s="7">
-        <v>1309454</v>
+        <v>1309453</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>102</v>
@@ -6334,7 +6343,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AA6262-D55C-43D9-89F6-83950E0FB152}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8568F3BC-4107-4A22-A0AF-DF71B1B48B21}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7199,7 +7208,7 @@
         <v>1731</v>
       </c>
       <c r="N18" s="7">
-        <v>1867074</v>
+        <v>1867073</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>354</v>
@@ -7250,7 +7259,7 @@
         <v>2151</v>
       </c>
       <c r="N19" s="7">
-        <v>2308298</v>
+        <v>2308297</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>102</v>
@@ -9653,7 +9662,7 @@
         <v>3605</v>
       </c>
       <c r="N66" s="7">
-        <v>3910093</v>
+        <v>3910094</v>
       </c>
       <c r="O66" s="7" t="s">
         <v>515</v>
@@ -9704,7 +9713,7 @@
         <v>6489</v>
       </c>
       <c r="N67" s="7">
-        <v>6967034</v>
+        <v>6967035</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>102</v>
@@ -9737,7 +9746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3012C2AC-9ED4-41C2-A381-CC1C8718ADA9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1185DE1-5071-415C-8E89-92C0A4B62D76}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13140,7 +13149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF029A7-06C4-4CE0-A28B-9CFFA9EC9839}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B099231B-1B81-49E6-B8D3-A24FB6E90706}">
   <dimension ref="A1:Q68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13261,7 +13270,7 @@
         <v>140</v>
       </c>
       <c r="D4" s="7">
-        <v>117921</v>
+        <v>111639</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>676</v>
@@ -13276,7 +13285,7 @@
         <v>454</v>
       </c>
       <c r="I4" s="7">
-        <v>264695</v>
+        <v>238091</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>679</v>
@@ -13291,7 +13300,7 @@
         <v>594</v>
       </c>
       <c r="N4" s="7">
-        <v>382617</v>
+        <v>349730</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>682</v>
@@ -13414,46 +13423,46 @@
         <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>4605</v>
+        <v>4698</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>43</v>
+        <v>270</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>638</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>3380</v>
+        <v>3035</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>252</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>222</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
       </c>
       <c r="N7" s="7">
-        <v>7985</v>
+        <v>7733</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>205</v>
+        <v>107</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -13516,46 +13525,46 @@
         <v>3</v>
       </c>
       <c r="D9" s="7">
-        <v>2401</v>
+        <v>2375</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>105</v>
+        <v>251</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>258</v>
+        <v>685</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
       </c>
       <c r="I9" s="7">
-        <v>1336</v>
+        <v>1259</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>3737</v>
+        <v>3633</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>419</v>
+        <v>110</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -13567,46 +13576,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>7495</v>
+        <v>7445</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>345</v>
+        <v>499</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>2483</v>
+        <v>2376</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>637</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
       </c>
       <c r="N10" s="7">
-        <v>9978</v>
+        <v>9821</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>685</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -13618,46 +13627,46 @@
         <v>4</v>
       </c>
       <c r="D11" s="7">
-        <v>2418</v>
+        <v>2402</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>138</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>51</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>321</v>
+        <v>122</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>3392</v>
+        <v>3140</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>252</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>222</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>687</v>
       </c>
       <c r="M11" s="7">
         <v>9</v>
       </c>
       <c r="N11" s="7">
-        <v>5810</v>
+        <v>5542</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -13720,46 +13729,46 @@
         <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>1158</v>
+        <v>1131</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>430</v>
+        <v>46</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>477</v>
+        <v>493</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>137</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>1635</v>
+        <v>1624</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>635</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>34</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -13771,46 +13780,46 @@
         <v>30</v>
       </c>
       <c r="D14" s="7">
-        <v>36400</v>
+        <v>36306</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H14" s="7">
         <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>19945</v>
+        <v>18119</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>689</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>653</v>
+        <v>371</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
       </c>
       <c r="N14" s="7">
-        <v>56345</v>
+        <v>54426</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>428</v>
+        <v>692</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>421</v>
+        <v>693</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -13822,16 +13831,16 @@
         <v>1</v>
       </c>
       <c r="D15" s="7">
-        <v>699</v>
+        <v>602</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -13852,7 +13861,7 @@
         <v>1</v>
       </c>
       <c r="N15" s="7">
-        <v>699</v>
+        <v>602</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>285</v>
@@ -13861,7 +13870,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -13873,46 +13882,46 @@
         <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>2268</v>
+        <v>2069</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>251</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>432</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>3775</v>
+        <v>3434</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>138</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>6043</v>
+        <v>5503</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -13924,46 +13933,46 @@
         <v>10</v>
       </c>
       <c r="D17" s="7">
-        <v>11224</v>
+        <v>12495</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>346</v>
+        <v>694</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>690</v>
+        <v>377</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>6672</v>
+        <v>7055</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>320</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>181</v>
+        <v>252</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>75</v>
+        <v>638</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
       </c>
       <c r="N17" s="7">
-        <v>17897</v>
+        <v>19550</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>600</v>
+        <v>47</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -13975,46 +13984,46 @@
         <v>462</v>
       </c>
       <c r="D18" s="7">
-        <v>331277</v>
+        <v>311375</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="H18" s="7">
         <v>832</v>
       </c>
       <c r="I18" s="7">
-        <v>469290</v>
+        <v>424385</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="M18" s="7">
         <v>1294</v>
       </c>
       <c r="N18" s="7">
-        <v>800567</v>
+        <v>735759</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -14026,7 +14035,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>517868</v>
+        <v>492536</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>102</v>
@@ -14041,7 +14050,7 @@
         <v>1345</v>
       </c>
       <c r="I19" s="7">
-        <v>775446</v>
+        <v>701387</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>102</v>
@@ -14056,7 +14065,7 @@
         <v>2010</v>
       </c>
       <c r="N19" s="7">
-        <v>1293314</v>
+        <v>1193922</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>102</v>
@@ -14079,46 +14088,46 @@
         <v>369</v>
       </c>
       <c r="D20" s="7">
-        <v>481885</v>
+        <v>474285</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="H20" s="7">
         <v>625</v>
       </c>
       <c r="I20" s="7">
-        <v>531634</v>
+        <v>527798</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="M20" s="7">
         <v>994</v>
       </c>
       <c r="N20" s="7">
-        <v>1013519</v>
+        <v>1002083</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -14232,46 +14241,46 @@
         <v>18</v>
       </c>
       <c r="D23" s="7">
-        <v>17622</v>
+        <v>17196</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>520</v>
+        <v>45</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>713</v>
       </c>
       <c r="H23" s="7">
         <v>31</v>
       </c>
       <c r="I23" s="7">
-        <v>22868</v>
+        <v>20619</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>268</v>
+        <v>108</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>274</v>
+        <v>357</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>90</v>
+        <v>714</v>
       </c>
       <c r="M23" s="7">
         <v>49</v>
       </c>
       <c r="N23" s="7">
-        <v>40489</v>
+        <v>37815</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>709</v>
+        <v>114</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>55</v>
+        <v>381</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -14334,46 +14343,46 @@
         <v>16</v>
       </c>
       <c r="D25" s="7">
-        <v>18265</v>
+        <v>17689</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>519</v>
+        <v>182</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>470</v>
+        <v>185</v>
       </c>
       <c r="H25" s="7">
         <v>17</v>
       </c>
       <c r="I25" s="7">
-        <v>11370</v>
+        <v>10611</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>520</v>
+        <v>339</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
       </c>
       <c r="N25" s="7">
-        <v>29635</v>
+        <v>28300</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>710</v>
+        <v>39</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -14385,46 +14394,46 @@
         <v>55</v>
       </c>
       <c r="D26" s="7">
-        <v>58273</v>
+        <v>52720</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>711</v>
+        <v>192</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>498</v>
+        <v>715</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>374</v>
+        <v>294</v>
       </c>
       <c r="H26" s="7">
         <v>83</v>
       </c>
       <c r="I26" s="7">
-        <v>63204</v>
+        <v>57245</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>712</v>
+        <v>495</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>395</v>
+        <v>716</v>
       </c>
       <c r="M26" s="7">
         <v>138</v>
       </c>
       <c r="N26" s="7">
-        <v>121476</v>
+        <v>109965</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>327</v>
+        <v>717</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>718</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>392</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -14436,46 +14445,46 @@
         <v>12</v>
       </c>
       <c r="D27" s="7">
-        <v>11318</v>
+        <v>11084</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>106</v>
+        <v>19</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>419</v>
+        <v>20</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>139</v>
+        <v>270</v>
       </c>
       <c r="H27" s="7">
         <v>29</v>
       </c>
       <c r="I27" s="7">
-        <v>17632</v>
+        <v>16804</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>713</v>
+        <v>223</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>254</v>
+        <v>519</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>321</v>
+        <v>599</v>
       </c>
       <c r="M27" s="7">
         <v>41</v>
       </c>
       <c r="N27" s="7">
-        <v>28950</v>
+        <v>27887</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>274</v>
+        <v>468</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>709</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -14487,46 +14496,46 @@
         <v>1</v>
       </c>
       <c r="D28" s="7">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>2452</v>
+        <v>2088</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>104</v>
+        <v>210</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>271</v>
+        <v>419</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
       </c>
       <c r="N28" s="7">
-        <v>3796</v>
+        <v>3426</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>554</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>253</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -14538,46 +14547,46 @@
         <v>12</v>
       </c>
       <c r="D29" s="7">
-        <v>10705</v>
+        <v>10402</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>315</v>
+        <v>138</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>317</v>
+        <v>183</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
       </c>
       <c r="I29" s="7">
-        <v>9375</v>
+        <v>8909</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>316</v>
+        <v>252</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>253</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>720</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
       </c>
       <c r="N29" s="7">
-        <v>20080</v>
+        <v>19312</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>52</v>
+        <v>273</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>58</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -14589,46 +14598,46 @@
         <v>364</v>
       </c>
       <c r="D30" s="7">
-        <v>426636</v>
+        <v>412562</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="H30" s="7">
         <v>348</v>
       </c>
       <c r="I30" s="7">
-        <v>288455</v>
+        <v>258169</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="M30" s="7">
         <v>712</v>
       </c>
       <c r="N30" s="7">
-        <v>715091</v>
+        <v>670731</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -14655,7 +14664,7 @@
         <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>601</v>
+        <v>636</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>251</v>
@@ -14664,16 +14673,16 @@
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>601</v>
+        <v>636</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>635</v>
+        <v>554</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
@@ -14691,46 +14700,46 @@
         <v>35</v>
       </c>
       <c r="D32" s="7">
-        <v>34344</v>
+        <v>33140</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>591</v>
+        <v>115</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>269</v>
+        <v>33</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>723</v>
+        <v>552</v>
       </c>
       <c r="H32" s="7">
         <v>95</v>
       </c>
       <c r="I32" s="7">
-        <v>68082</v>
+        <v>62708</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>726</v>
+        <v>431</v>
       </c>
       <c r="M32" s="7">
         <v>130</v>
       </c>
       <c r="N32" s="7">
-        <v>102426</v>
+        <v>95848</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>725</v>
+        <v>123</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>31</v>
+        <v>591</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>373</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -14742,46 +14751,46 @@
         <v>73</v>
       </c>
       <c r="D33" s="7">
-        <v>89883</v>
+        <v>91873</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>196</v>
+        <v>495</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="H33" s="7">
         <v>104</v>
       </c>
       <c r="I33" s="7">
-        <v>83321</v>
+        <v>78302</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>729</v>
+        <v>431</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>610</v>
+        <v>325</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="M33" s="7">
         <v>177</v>
       </c>
       <c r="N33" s="7">
-        <v>173205</v>
+        <v>170175</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>379</v>
+        <v>735</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>292</v>
+        <v>736</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>570</v>
+        <v>737</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -14793,46 +14802,46 @@
         <v>906</v>
       </c>
       <c r="D34" s="7">
-        <v>842354</v>
+        <v>1001938</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>731</v>
+        <v>738</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>733</v>
+        <v>740</v>
       </c>
       <c r="H34" s="7">
         <v>1345</v>
       </c>
       <c r="I34" s="7">
-        <v>967124</v>
+        <v>999522</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="M34" s="7">
         <v>2251</v>
       </c>
       <c r="N34" s="7">
-        <v>1809478</v>
+        <v>2001459</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -14844,7 +14853,7 @@
         <v>1861</v>
       </c>
       <c r="D35" s="7">
-        <v>1992628</v>
+        <v>2124225</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>102</v>
@@ -14859,7 +14868,7 @@
         <v>2696</v>
       </c>
       <c r="I35" s="7">
-        <v>2066118</v>
+        <v>2043412</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>102</v>
@@ -14874,7 +14883,7 @@
         <v>4557</v>
       </c>
       <c r="N35" s="7">
-        <v>4058746</v>
+        <v>4167637</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>102</v>
@@ -14897,46 +14906,46 @@
         <v>105</v>
       </c>
       <c r="D36" s="7">
-        <v>117606</v>
+        <v>112712</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>742</v>
+        <v>749</v>
       </c>
       <c r="H36" s="7">
         <v>185</v>
       </c>
       <c r="I36" s="7">
-        <v>139147</v>
+        <v>128987</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>744</v>
+        <v>751</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>745</v>
+        <v>752</v>
       </c>
       <c r="M36" s="7">
         <v>290</v>
       </c>
       <c r="N36" s="7">
-        <v>256753</v>
+        <v>241698</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>746</v>
+        <v>753</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>748</v>
+        <v>755</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -15050,46 +15059,46 @@
         <v>14</v>
       </c>
       <c r="D39" s="7">
-        <v>10060</v>
+        <v>9428</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>598</v>
+        <v>713</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>713</v>
+        <v>320</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>749</v>
+        <v>134</v>
       </c>
       <c r="H39" s="7">
         <v>31</v>
       </c>
       <c r="I39" s="7">
-        <v>17942</v>
+        <v>16907</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>750</v>
+        <v>436</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>340</v>
+        <v>84</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="M39" s="7">
         <v>45</v>
       </c>
       <c r="N39" s="7">
-        <v>28002</v>
+        <v>26335</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>225</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>752</v>
+        <v>361</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>341</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -15101,16 +15110,16 @@
         <v>2</v>
       </c>
       <c r="D40" s="7">
-        <v>3020</v>
+        <v>2790</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>589</v>
+        <v>685</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -15131,7 +15140,7 @@
         <v>2</v>
       </c>
       <c r="N40" s="7">
-        <v>3020</v>
+        <v>2790</v>
       </c>
       <c r="O40" s="7" t="s">
         <v>56</v>
@@ -15140,7 +15149,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>637</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -15152,37 +15161,37 @@
         <v>1</v>
       </c>
       <c r="D41" s="7">
-        <v>1892</v>
+        <v>1870</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>110</v>
+        <v>273</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>80</v>
+        <v>193</v>
       </c>
       <c r="H41" s="7">
         <v>4</v>
       </c>
       <c r="I41" s="7">
-        <v>2249</v>
+        <v>2107</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>52</v>
+        <v>255</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>210</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="M41" s="7">
         <v>5</v>
       </c>
       <c r="N41" s="7">
-        <v>4142</v>
+        <v>3978</v>
       </c>
       <c r="O41" s="7" t="s">
         <v>271</v>
@@ -15191,7 +15200,7 @@
         <v>15</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>183</v>
+        <v>114</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -15203,46 +15212,46 @@
         <v>30</v>
       </c>
       <c r="D42" s="7">
-        <v>34292</v>
+        <v>31292</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>422</v>
+        <v>759</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="H42" s="7">
         <v>37</v>
       </c>
       <c r="I42" s="7">
-        <v>25605</v>
+        <v>23142</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>756</v>
+        <v>199</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>325</v>
+        <v>761</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="M42" s="7">
         <v>67</v>
       </c>
       <c r="N42" s="7">
-        <v>59897</v>
+        <v>54434</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>290</v>
+        <v>424</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>612</v>
+        <v>764</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -15254,46 +15263,46 @@
         <v>3</v>
       </c>
       <c r="D43" s="7">
-        <v>4438</v>
+        <v>4125</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>274</v>
+        <v>55</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>759</v>
+        <v>639</v>
       </c>
       <c r="H43" s="7">
         <v>9</v>
       </c>
       <c r="I43" s="7">
-        <v>5348</v>
+        <v>5018</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>637</v>
+        <v>765</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>483</v>
+        <v>143</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="M43" s="7">
         <v>12</v>
       </c>
       <c r="N43" s="7">
-        <v>9785</v>
+        <v>9144</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>209</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -15305,16 +15314,16 @@
         <v>2</v>
       </c>
       <c r="D44" s="7">
-        <v>925</v>
+        <v>851</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>14</v>
+        <v>286</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -15335,7 +15344,7 @@
         <v>2</v>
       </c>
       <c r="N44" s="7">
-        <v>925</v>
+        <v>851</v>
       </c>
       <c r="O44" s="7" t="s">
         <v>57</v>
@@ -15344,7 +15353,7 @@
         <v>11</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -15356,46 +15365,46 @@
         <v>3</v>
       </c>
       <c r="D45" s="7">
-        <v>3322</v>
+        <v>3422</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>337</v>
+        <v>106</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>286</v>
+        <v>49</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>115</v>
+        <v>420</v>
       </c>
       <c r="H45" s="7">
         <v>3</v>
       </c>
       <c r="I45" s="7">
-        <v>1828</v>
+        <v>1777</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>27</v>
+        <v>686</v>
       </c>
       <c r="M45" s="7">
         <v>6</v>
       </c>
       <c r="N45" s="7">
-        <v>5150</v>
+        <v>5199</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>222</v>
+        <v>275</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>320</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -15407,46 +15416,46 @@
         <v>115</v>
       </c>
       <c r="D46" s="7">
-        <v>135697</v>
+        <v>130505</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="H46" s="7">
         <v>127</v>
       </c>
       <c r="I46" s="7">
-        <v>102917</v>
+        <v>95288</v>
       </c>
       <c r="J46" s="7" t="s">
         <v>456</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="M46" s="7">
         <v>242</v>
       </c>
       <c r="N46" s="7">
-        <v>238615</v>
+        <v>225793</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -15509,46 +15518,46 @@
         <v>12</v>
       </c>
       <c r="D48" s="7">
-        <v>13491</v>
+        <v>12525</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>225</v>
+        <v>343</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>636</v>
+        <v>360</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
       </c>
       <c r="I48" s="7">
-        <v>33875</v>
+        <v>30649</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>593</v>
+        <v>689</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>768</v>
+        <v>569</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="M48" s="7">
         <v>60</v>
       </c>
       <c r="N48" s="7">
-        <v>47367</v>
+        <v>43174</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -15560,46 +15569,46 @@
         <v>21</v>
       </c>
       <c r="D49" s="7">
-        <v>29208</v>
+        <v>29226</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>393</v>
+        <v>779</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>496</v>
+        <v>158</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>773</v>
+        <v>780</v>
       </c>
       <c r="H49" s="7">
         <v>61</v>
       </c>
       <c r="I49" s="7">
-        <v>48189</v>
+        <v>45328</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>774</v>
+        <v>781</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>775</v>
+        <v>782</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="M49" s="7">
         <v>82</v>
       </c>
       <c r="N49" s="7">
-        <v>77397</v>
+        <v>74554</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>755</v>
+        <v>786</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -15611,46 +15620,46 @@
         <v>331</v>
       </c>
       <c r="D50" s="7">
-        <v>272443</v>
+        <v>262846</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>146</v>
+        <v>788</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>780</v>
+        <v>744</v>
       </c>
       <c r="H50" s="7">
         <v>448</v>
       </c>
       <c r="I50" s="7">
-        <v>296755</v>
+        <v>274668</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="M50" s="7">
         <v>779</v>
       </c>
       <c r="N50" s="7">
-        <v>569198</v>
+        <v>537513</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -15662,7 +15671,7 @@
         <v>639</v>
       </c>
       <c r="D51" s="7">
-        <v>626394</v>
+        <v>601591</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>102</v>
@@ -15677,7 +15686,7 @@
         <v>953</v>
       </c>
       <c r="I51" s="7">
-        <v>673856</v>
+        <v>623872</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>102</v>
@@ -15692,7 +15701,7 @@
         <v>1592</v>
       </c>
       <c r="N51" s="7">
-        <v>1300250</v>
+        <v>1225462</v>
       </c>
       <c r="O51" s="7" t="s">
         <v>102</v>
@@ -15715,46 +15724,46 @@
         <v>614</v>
       </c>
       <c r="D52" s="7">
-        <v>717413</v>
+        <v>698636</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="H52" s="7">
         <v>1264</v>
       </c>
       <c r="I52" s="7">
-        <v>935476</v>
+        <v>894876</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="M52" s="7">
         <v>1878</v>
       </c>
       <c r="N52" s="7">
-        <v>1652889</v>
+        <v>1593512</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -15868,46 +15877,46 @@
         <v>36</v>
       </c>
       <c r="D55" s="7">
-        <v>32287</v>
+        <v>31321</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>139</v>
+        <v>78</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>77</v>
+        <v>804</v>
       </c>
       <c r="H55" s="7">
         <v>67</v>
       </c>
       <c r="I55" s="7">
-        <v>44190</v>
+        <v>40562</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>364</v>
+        <v>553</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>33</v>
+        <v>520</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>445</v>
+        <v>715</v>
       </c>
       <c r="M55" s="7">
         <v>103</v>
       </c>
       <c r="N55" s="7">
-        <v>76477</v>
+        <v>71883</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>636</v>
+        <v>24</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>546</v>
+        <v>805</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>267</v>
+        <v>545</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -15919,16 +15928,16 @@
         <v>2</v>
       </c>
       <c r="D56" s="7">
-        <v>3020</v>
+        <v>2790</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>210</v>
+        <v>51</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>137</v>
+        <v>273</v>
       </c>
       <c r="H56" s="7">
         <v>0</v>
@@ -15949,16 +15958,16 @@
         <v>2</v>
       </c>
       <c r="N56" s="7">
-        <v>3020</v>
+        <v>2790</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="P56" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>275</v>
+        <v>49</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -15970,46 +15979,46 @@
         <v>20</v>
       </c>
       <c r="D57" s="7">
-        <v>22559</v>
+        <v>21934</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>269</v>
+        <v>430</v>
       </c>
       <c r="H57" s="7">
         <v>23</v>
       </c>
       <c r="I57" s="7">
-        <v>14956</v>
+        <v>13977</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>50</v>
+        <v>380</v>
       </c>
       <c r="M57" s="7">
         <v>43</v>
       </c>
       <c r="N57" s="7">
-        <v>37514</v>
+        <v>35910</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>796</v>
+        <v>686</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -16021,46 +16030,46 @@
         <v>91</v>
       </c>
       <c r="D58" s="7">
-        <v>100060</v>
+        <v>91457</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>656</v>
+        <v>550</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>797</v>
+        <v>343</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>798</v>
+        <v>224</v>
       </c>
       <c r="H58" s="7">
         <v>125</v>
       </c>
       <c r="I58" s="7">
-        <v>91292</v>
+        <v>82763</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>799</v>
+        <v>806</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>346</v>
+        <v>532</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>125</v>
+        <v>435</v>
       </c>
       <c r="M58" s="7">
         <v>216</v>
       </c>
       <c r="N58" s="7">
-        <v>191352</v>
+        <v>174220</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>800</v>
+        <v>717</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>801</v>
+        <v>346</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -16072,46 +16081,46 @@
         <v>19</v>
       </c>
       <c r="D59" s="7">
-        <v>18174</v>
+        <v>17611</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>137</v>
+        <v>52</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>33</v>
+        <v>114</v>
       </c>
       <c r="H59" s="7">
         <v>43</v>
       </c>
       <c r="I59" s="7">
-        <v>26372</v>
+        <v>24962</v>
       </c>
       <c r="J59" s="7" t="s">
-        <v>209</v>
+        <v>27</v>
       </c>
       <c r="K59" s="7" t="s">
-        <v>337</v>
+        <v>19</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="M59" s="7">
         <v>62</v>
       </c>
       <c r="N59" s="7">
-        <v>44546</v>
+        <v>42573</v>
       </c>
       <c r="O59" s="7" t="s">
-        <v>468</v>
+        <v>50</v>
       </c>
       <c r="P59" s="7" t="s">
-        <v>256</v>
+        <v>34</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>183</v>
+        <v>805</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -16123,7 +16132,7 @@
         <v>3</v>
       </c>
       <c r="D60" s="7">
-        <v>2268</v>
+        <v>2189</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>57</v>
@@ -16138,31 +16147,31 @@
         <v>3</v>
       </c>
       <c r="I60" s="7">
-        <v>2452</v>
+        <v>2088</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="K60" s="7" t="s">
         <v>554</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>54</v>
+        <v>275</v>
       </c>
       <c r="M60" s="7">
         <v>6</v>
       </c>
       <c r="N60" s="7">
-        <v>4721</v>
+        <v>4277</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>251</v>
+        <v>554</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>222</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -16174,22 +16183,22 @@
         <v>17</v>
       </c>
       <c r="D61" s="7">
-        <v>15185</v>
+        <v>14956</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>419</v>
+        <v>140</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>71</v>
+        <v>686</v>
       </c>
       <c r="H61" s="7">
         <v>18</v>
       </c>
       <c r="I61" s="7">
-        <v>11680</v>
+        <v>11179</v>
       </c>
       <c r="J61" s="7" t="s">
         <v>52</v>
@@ -16204,7 +16213,7 @@
         <v>35</v>
       </c>
       <c r="N61" s="7">
-        <v>26865</v>
+        <v>26135</v>
       </c>
       <c r="O61" s="7" t="s">
         <v>73</v>
@@ -16225,46 +16234,46 @@
         <v>509</v>
       </c>
       <c r="D62" s="7">
-        <v>598733</v>
+        <v>579373</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="H62" s="7">
         <v>502</v>
       </c>
       <c r="I62" s="7">
-        <v>411317</v>
+        <v>371576</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="M62" s="7">
         <v>1011</v>
       </c>
       <c r="N62" s="7">
-        <v>1010051</v>
+        <v>950949</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -16276,7 +16285,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="7">
-        <v>699</v>
+        <v>602</v>
       </c>
       <c r="E63" s="7" t="s">
         <v>554</v>
@@ -16285,13 +16294,13 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="H63" s="7">
         <v>2</v>
       </c>
       <c r="I63" s="7">
-        <v>601</v>
+        <v>636</v>
       </c>
       <c r="J63" s="7" t="s">
         <v>554</v>
@@ -16306,7 +16315,7 @@
         <v>3</v>
       </c>
       <c r="N63" s="7">
-        <v>1299</v>
+        <v>1238</v>
       </c>
       <c r="O63" s="7" t="s">
         <v>554</v>
@@ -16315,7 +16324,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -16327,46 +16336,46 @@
         <v>50</v>
       </c>
       <c r="D64" s="7">
-        <v>50104</v>
+        <v>47733</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>260</v>
+        <v>29</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>522</v>
+        <v>139</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>346</v>
+        <v>817</v>
       </c>
       <c r="H64" s="7">
         <v>148</v>
       </c>
       <c r="I64" s="7">
-        <v>105732</v>
+        <v>96791</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>322</v>
+        <v>498</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>378</v>
+        <v>651</v>
       </c>
       <c r="M64" s="7">
         <v>198</v>
       </c>
       <c r="N64" s="7">
-        <v>155836</v>
+        <v>144525</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -16378,46 +16387,46 @@
         <v>104</v>
       </c>
       <c r="D65" s="7">
-        <v>130315</v>
+        <v>133594</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>375</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>757</v>
+        <v>820</v>
       </c>
       <c r="H65" s="7">
         <v>174</v>
       </c>
       <c r="I65" s="7">
-        <v>138183</v>
+        <v>130685</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>815</v>
+        <v>371</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>817</v>
+        <v>596</v>
       </c>
       <c r="M65" s="7">
         <v>278</v>
       </c>
       <c r="N65" s="7">
-        <v>268498</v>
+        <v>264279</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>475</v>
+        <v>821</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>155</v>
+        <v>822</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>427</v>
+        <v>596</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -16429,46 +16438,46 @@
         <v>1699</v>
       </c>
       <c r="D66" s="7">
-        <v>1446074</v>
+        <v>1576158</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="H66" s="7">
         <v>2625</v>
       </c>
       <c r="I66" s="7">
-        <v>1733170</v>
+        <v>1698574</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>821</v>
+        <v>582</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>822</v>
+        <v>581</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="M66" s="7">
         <v>4324</v>
       </c>
       <c r="N66" s="7">
-        <v>3179244</v>
+        <v>3274732</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -16480,7 +16489,7 @@
         <v>3165</v>
       </c>
       <c r="D67" s="7">
-        <v>3136890</v>
+        <v>3218352</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>102</v>
@@ -16495,7 +16504,7 @@
         <v>4994</v>
       </c>
       <c r="I67" s="7">
-        <v>3515420</v>
+        <v>3368670</v>
       </c>
       <c r="J67" s="7" t="s">
         <v>102</v>
@@ -16510,7 +16519,7 @@
         <v>8159</v>
       </c>
       <c r="N67" s="7">
-        <v>6652311</v>
+        <v>6587022</v>
       </c>
       <c r="O67" s="7" t="s">
         <v>102</v>
